--- a/data/trans_dic/P55_9-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_9-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de una lavadora</t>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>97,87%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>96,46%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>98,36%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>95,94%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98,68%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>97,56%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>98,75%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>98,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>97,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,67</t>
+          <t>98,13; 99,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,81; 97,69</t>
+          <t>95,68; 99,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,17; 99,06</t>
+          <t>94,6; 97,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,3; 98,39</t>
+          <t>94,03; 97,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,26</t>
+          <t>97,18; 99,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,06; 97,82</t>
+          <t>97,47; 99,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96,37; 98,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>94,95; 97,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98,05; 99,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97,15; 99,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96,14; 97,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>95,04; 97,13</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>98,22%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>97,76%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>96,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97,67%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>96,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>96,18%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>97,97%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>97,25%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>97,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,75; 99,26</t>
+          <t>95,77; 99,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,09; 99,34</t>
+          <t>92,66; 99,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,97; 98,87</t>
+          <t>95,89; 99,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,64; 98,32</t>
+          <t>92,85; 98,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,58; 98,78</t>
+          <t>95,82; 98,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,14; 98,49</t>
+          <t>90,13; 98,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92,89; 98,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>95,78; 99,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96,61; 98,82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>92,76; 98,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>95,19; 98,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95,55; 98,53</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>99,51%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98,72%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,52; 100,0</t>
+          <t>97,54; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>93,12; 100,0</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>97,53; 100,0</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,47; 100,0</t>
+          <t>97,7; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>94,21; 100,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>98,29; 100,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>95,13; 100,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>96,88%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>98,26%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>96,03%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98,22%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>97,87%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>97,26%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>98,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>96,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98,52%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>97,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>97,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96,45%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,78; 99,34</t>
+          <t>97,84; 99,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,91</t>
+          <t>95,98; 98,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,45; 98,83</t>
+          <t>95,55; 97,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 98,13</t>
+          <t>94,21; 97,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,93; 98,97</t>
+          <t>97,37; 98,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,17; 97,79</t>
+          <t>95,05; 98,82</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96,18; 98,15</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>95,71; 97,8</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>97,9; 98,95</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96,24; 97,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95,53; 97,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,44%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>653.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>636.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>835.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>852.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1505.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1136.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1480.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1488.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1626807</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1587396</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>218880</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>216412</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1758045</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1772139</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>229501</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>227335</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3384851</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3359535</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>448380</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>443748</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1609046; 1633980</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1551824; 1607856</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>214665; 221537</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>212105; 219373</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1737328; 1771415</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1750383; 1786080</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226714; 231466</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>223816; 229799</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3360745; 3401571</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3320496; 3386571</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>444335; 452129</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>438414; 448085</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>502.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1119.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>909.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1315608</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1349392</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70196</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69240</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1331182</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1319453</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61863</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65048</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2646789</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2668845</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>132059</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>134288</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1283474; 1331455</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1275856; 1371258</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68534; 71006</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66739; 70641</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1305973; 1346547</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1232423; 1349684</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59749; 63102</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63356; 65875</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2611552; 2671130</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2545735; 2712942</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>129256; 133747</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>131879; 135991</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>416218</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>413542</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>404838</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>401704</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>821057</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>815246</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>407933; 418218</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>390792; 419649</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>397285; 406656</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>382611; 406133</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>810761; 824874</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>785541; 825782</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1312.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>879.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>873.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1619.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1244.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2931.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2264.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1929.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1945.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3358633</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3350329</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>289076</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>285651</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3494064</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3493295</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>291364</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>292383</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6852697</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6843624</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>580439</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>578035</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3324563; 3377802</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3281178; 3382476</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>285115; 292273</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>280218; 288918</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3464052; 3514821</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3392614; 3527309</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>288136; 294032</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>288916; 295222</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6809299; 6882588</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6737633; 6899283</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>575470; 584485</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>572526; 582785</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
